--- a/Data/120517_7thIpam/Processed/7thiPAM_Genotypes.xlsx
+++ b/Data/120517_7thIpam/Processed/7thiPAM_Genotypes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="0" windowWidth="13460" windowHeight="17900" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="17900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Genotypes.csv" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3494" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3488" uniqueCount="675">
   <si>
     <t>Picture</t>
   </si>
@@ -2037,13 +2037,22 @@
     <t>7th Ipam</t>
   </si>
   <si>
-    <t>1759C</t>
-  </si>
-  <si>
-    <t>1751K</t>
-  </si>
-  <si>
-    <t>1738C</t>
+    <t>1732E</t>
+  </si>
+  <si>
+    <t>1739B</t>
+  </si>
+  <si>
+    <t>1759K</t>
+  </si>
+  <si>
+    <t>1739O</t>
+  </si>
+  <si>
+    <t>1753L</t>
+  </si>
+  <si>
+    <t>1738B</t>
   </si>
 </sst>
 </file>
@@ -2380,8 +2389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ306"/>
   <sheetViews>
-    <sheetView topLeftCell="J152" workbookViewId="0">
-      <selection activeCell="C174" sqref="C174"/>
+    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="C266" sqref="C266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5316,7 +5325,7 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>581</v>
+        <v>670</v>
       </c>
       <c r="C39" t="s">
         <v>541</v>
@@ -6857,10 +6866,10 @@
         <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>669</v>
-      </c>
-      <c r="C62" t="s">
-        <v>534</v>
+        <v>57</v>
+      </c>
+      <c r="C62">
+        <v>1739</v>
       </c>
       <c r="D62" t="s">
         <v>656</v>
@@ -9939,7 +9948,7 @@
         <v>12</v>
       </c>
       <c r="B108" t="s">
-        <v>38</v>
+        <v>669</v>
       </c>
       <c r="C108" t="s">
         <v>515</v>
@@ -11614,10 +11623,10 @@
         <v>14</v>
       </c>
       <c r="B133" t="s">
-        <v>670</v>
-      </c>
-      <c r="C133" t="s">
-        <v>544</v>
+        <v>671</v>
+      </c>
+      <c r="C133">
+        <v>1759</v>
       </c>
       <c r="D133" t="s">
         <v>649</v>
@@ -14830,10 +14839,10 @@
         <v>20</v>
       </c>
       <c r="B181" t="s">
-        <v>88</v>
-      </c>
-      <c r="C181" t="s">
-        <v>527</v>
+        <v>673</v>
+      </c>
+      <c r="C181">
+        <v>1753</v>
       </c>
       <c r="D181" t="s">
         <v>643</v>
@@ -16226,7 +16235,7 @@
         <v>22</v>
       </c>
       <c r="B202" t="s">
-        <v>57</v>
+        <v>672</v>
       </c>
       <c r="C202" t="s">
         <v>541</v>
@@ -18973,7 +18982,7 @@
         <v>27</v>
       </c>
       <c r="B243" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="C243" t="s">
         <v>539</v>
@@ -21052,8 +21061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="D175" sqref="D175"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F256" sqref="A1:F256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21823,7 +21832,7 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>581</v>
+        <v>670</v>
       </c>
       <c r="C39" t="s">
         <v>541</v>
@@ -22283,10 +22292,10 @@
         <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>669</v>
-      </c>
-      <c r="C62" t="s">
-        <v>534</v>
+        <v>57</v>
+      </c>
+      <c r="C62">
+        <v>1739</v>
       </c>
       <c r="D62" t="s">
         <v>656</v>
@@ -23203,7 +23212,7 @@
         <v>12</v>
       </c>
       <c r="B108" t="s">
-        <v>38</v>
+        <v>669</v>
       </c>
       <c r="C108" t="s">
         <v>515</v>
@@ -23703,10 +23712,10 @@
         <v>14</v>
       </c>
       <c r="B133" t="s">
-        <v>670</v>
-      </c>
-      <c r="C133" t="s">
-        <v>544</v>
+        <v>671</v>
+      </c>
+      <c r="C133">
+        <v>1759</v>
       </c>
       <c r="D133" t="s">
         <v>649</v>
@@ -24663,10 +24672,10 @@
         <v>20</v>
       </c>
       <c r="B181" t="s">
-        <v>88</v>
-      </c>
-      <c r="C181" t="s">
-        <v>527</v>
+        <v>673</v>
+      </c>
+      <c r="C181">
+        <v>1753</v>
       </c>
       <c r="D181" t="s">
         <v>643</v>
@@ -25083,7 +25092,7 @@
         <v>22</v>
       </c>
       <c r="B202" t="s">
-        <v>57</v>
+        <v>672</v>
       </c>
       <c r="C202" t="s">
         <v>541</v>
@@ -25903,7 +25912,7 @@
         <v>27</v>
       </c>
       <c r="B243" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="C243" t="s">
         <v>539</v>
